--- a/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-04T15:31:44+00:00</t>
+    <t>2024-09-04T15:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-04T15:33:01+00:00</t>
+    <t>2024-09-05T14:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T14:31:01+00:00</t>
+    <t>2024-09-05T14:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T14:31:22+00:00</t>
+    <t>2024-12-11T08:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil dérivé de FrHealthcareService pour le cas d'usage agrégateur CPTS</t>
+    <t>Profil dérivé de FrHealthcareService pour le cas d'usage agrégateur de la plateforme SAS - cas d'usage CPTS</t>
   </si>
   <si>
     <t>Purpose</t>
